--- a/Category/ingredient_info_with_colors.xlsx
+++ b/Category/ingredient_info_with_colors.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\ThaiLocalIngredients\Category\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA474AA-C6C5-4EEC-A04A-1A1B912D705F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -301,8 +295,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,21 +359,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -417,7 +403,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -451,7 +437,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -486,10 +471,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -662,20 +646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -721,7 +699,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -738,7 +716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -752,7 +730,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -769,7 +747,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -783,7 +761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -800,7 +778,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -814,7 +792,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -831,7 +809,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -845,7 +823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -859,7 +837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -873,7 +851,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -887,7 +865,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -904,7 +882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -918,7 +896,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -932,7 +910,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -949,7 +927,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -969,7 +947,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -986,7 +964,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1006,7 +984,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1035,7 +1013,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1052,7 +1030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1066,7 +1044,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1083,7 +1061,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>32</v>
       </c>
